--- a/biology/Zoologie/Dipsadoboa_weileri/Dipsadoboa_weileri.xlsx
+++ b/biology/Zoologie/Dipsadoboa_weileri/Dipsadoboa_weileri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dipsadoboa weileri est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dipsadoboa weileri est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 dans le Sud-ouest du Cameroun ;
 au Gabon ;
 en Guinée équatoriale ;
@@ -549,9 +563,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Dipsadoboa weileri[2] mesure 68,5 cm dont 11 cm pour la queue. Cette espèce a la face dorsale bleu-vert. Le dessous de sa tête et la moitié antérieure de son corps est jaune orangé. La partie postérieure est jaunâtre marbré de gris. Le dessous de sa queue est gris intense.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Dipsadoboa weileri mesure 68,5 cm dont 11 cm pour la queue. Cette espèce a la face dorsale bleu-vert. Le dessous de sa tête et la moitié antérieure de son corps est jaune orangé. La partie postérieure est jaunâtre marbré de gris. Le dessous de sa queue est gris intense.
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en l'honneur de Justus Weiler qui a découvert le spécimen étudié.
 </t>
@@ -611,7 +629,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lindholm, 1905 : Beschreibung einer neuen Schlangenart (Dipsadophidium weiler g. et sp. n.). Jahrbücher des Nassauischen Vereins für Naturkunde, vol. 58, p. 183-187 (texte intégral).</t>
         </is>
